--- a/core/common/commonConfig/cCost.xlsx
+++ b/core/common/commonConfig/cCost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="460" windowWidth="23500" windowHeight="10160" activeTab="1"/>
+    <workbookView xWindow="2160" yWindow="1900" windowWidth="23500" windowHeight="10160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
